--- a/5_Soft/2_Desktop_SW/DT_500_Autotest/Template/Template_report.xlsx
+++ b/5_Soft/2_Desktop_SW/DT_500_Autotest/Template/Template_report.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\Documents\GitHub\sensor_current_stand\5_Soft\2_Desktop_SW\DT_500_Autotest\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA9F73-263E-4B5E-9A08-DC1EA68E09E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D320FACC-9BE6-4E6F-9E29-ECCED84BE791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23055" yWindow="2580" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23310" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Итог" sheetId="1" r:id="rId1"/>
-    <sheet name="Данные" sheetId="2" r:id="rId2"/>
-    <sheet name="Доп. данные" sheetId="3" r:id="rId3"/>
+    <sheet name="Данные" sheetId="2" r:id="rId1"/>
+    <sheet name="Доп. данные" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Номер датчика</t>
   </si>
@@ -136,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -150,12 +149,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,192 +451,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K242"/>
   <sheetViews>
@@ -1314,7 +1121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
